--- a/medicine/Enfance/Rolande_Causse/Rolande_Causse.xlsx
+++ b/medicine/Enfance/Rolande_Causse/Rolande_Causse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rolande Causse, née le 1er mai 1937, est une autrice de littérature de jeunesse française.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est la fondatrice de l'association La Scribure crée en 1975 et à comme but de consacré la pratique des ateliers lecture-écriture et la promotion de la littérature . Elle a écrit de nombreux romans, poèmes et ouvrages de littérature pour la jeunesse. Elle donne également des stages d'écriture.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste non exhaustive
 (avec Madeleine Gilard) Contes et images d'autrefois, Éditions La Farandole, 1968
